--- a/Reconciliation template - Rockefeller - PA PSERS.xlsx
+++ b/Reconciliation template - Rockefeller - PA PSERS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_NCTSERS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_NCTSERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -678,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,11 +1315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,10 +1944,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="G15" s="26">
-        <f>C5+D5+E5+F5</f>
-        <v>75855</v>
-      </c>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C16" s="26"/>
@@ -1959,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2383,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
